--- a/docs/Datos socios.xlsx
+++ b/docs/Datos socios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomas\Desktop\proyecto-BDA\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{371BCE7C-63C1-479F-9AFD-44B5D3B64150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA7D9FC1-804B-49EC-B7E6-812908FBE7A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7110" yWindow="360" windowWidth="21600" windowHeight="11295" tabRatio="732" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11220" yWindow="855" windowWidth="21600" windowHeight="11295" tabRatio="732" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Responsables de Pago" sheetId="1" r:id="rId1"/>
@@ -32417,7 +32417,7 @@
   <dimension ref="B2:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32537,7 +32537,7 @@
         <v>613</v>
       </c>
       <c r="C12" s="5">
-        <v>150000</v>
+        <v>99999</v>
       </c>
       <c r="D12" s="6">
         <v>45808</v>

--- a/docs/Datos socios.xlsx
+++ b/docs/Datos socios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomas\Desktop\proyecto-BDA\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA7D9FC1-804B-49EC-B7E6-812908FBE7A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D6F524-D384-4864-9AAD-C7D88BD5AD8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11220" yWindow="855" windowWidth="21600" windowHeight="11295" tabRatio="732" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8940" yWindow="2460" windowWidth="21600" windowHeight="11295" tabRatio="732" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Responsables de Pago" sheetId="1" r:id="rId1"/>
@@ -2544,8 +2544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K121"/>
   <sheetViews>
-    <sheetView topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62:A107"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32416,7 +32416,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E70FEA9-2699-4D25-8C16-D7DDE65501C1}">
   <dimension ref="B2:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -32668,8 +32668,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:I928"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D930" sqref="D930"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32882,8 +32882,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>641</v>
+      <c r="A12" t="s">
+        <v>266</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>604</v>
@@ -32900,8 +32900,8 @@
       </c>
     </row>
     <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>641</v>
+      <c r="A13" t="s">
+        <v>268</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>604</v>
@@ -32918,8 +32918,8 @@
       </c>
     </row>
     <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>641</v>
+      <c r="A14" t="s">
+        <v>352</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>604</v>
@@ -33275,8 +33275,8 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>571</v>
+      <c r="A34" t="s">
+        <v>268</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>604</v>
@@ -33293,8 +33293,8 @@
       </c>
     </row>
     <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>571</v>
+      <c r="A35" t="s">
+        <v>268</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>604</v>
@@ -33311,8 +33311,8 @@
       </c>
     </row>
     <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>571</v>
+      <c r="A36" t="s">
+        <v>352</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>604</v>
@@ -33489,8 +33489,8 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
-        <v>640</v>
+      <c r="A46" t="s">
+        <v>641</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>604</v>
@@ -33507,8 +33507,8 @@
       </c>
     </row>
     <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
-        <v>640</v>
+      <c r="A47" t="s">
+        <v>268</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>604</v>
@@ -33525,8 +33525,8 @@
       </c>
     </row>
     <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
-        <v>640</v>
+      <c r="A48" t="s">
+        <v>352</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>604</v>
